--- a/MissionA_Organisation/sprint_planning.xlsx
+++ b/MissionA_Organisation/sprint_planning.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sprint Planning" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Accueil" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sprint 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sprint 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sprint 3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,12 +32,22 @@
       <name val="Arial"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="13"/>
+      <sz val="18"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color rgb="00000000"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="15"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -55,11 +68,35 @@
     </font>
     <font>
       <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00375623"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <i val="1"/>
       <color rgb="00000000"/>
-      <sz val="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00C55A11"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00C55A11"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -68,37 +105,57 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F3864"/>
+        <fgColor rgb="001F4E79"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D6E4F7"/>
+        <fgColor rgb="00DEEAF1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00EBF3FB"/>
+        <fgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9EAD3"/>
+        <fgColor rgb="002E75B6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FCE5CD"/>
+        <fgColor rgb="00EAF4FB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CFE2F3"/>
+        <fgColor rgb="00FCE4D6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
+        <fgColor rgb="00FEF9E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C55A11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00375623"/>
       </patternFill>
     </fill>
   </fills>
@@ -128,57 +185,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,303 +639,2636 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="44" customWidth="1" min="4" max="4"/>
-    <col width="44" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>A.1 — SPRINT PLANNING  |  QuickRepair France</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Groupe : Ouafae Berhili (Supabase + Metabase)  &amp;  Amal Bouzaher (Retool)  |  CDA Bac+3  |  S1 2025-2026  |  Méthode Agile — 3 Sprints</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Stack validée : BDD MySQL (19 tables) → Supabase  |  App CRUD → Retool  |  Dashboard BI → Metabase  |  Versioning → GitHub</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="36" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>Sprint / Période</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Sprint Goal</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>User Stories sélectionnées</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Tâches — Ouafae Berhili
-(BDD + Metabase)</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Tâches — Amal Bouzaher
-(Retool + GitHub)</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>Livrables attendus</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>Durée</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
+    <row r="2" ht="46" customHeight="1">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>SPRINT PLANNING — PROJET QUICKREPAIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Formation :</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>CDA Bac+3 — ESIC | Semestre 1 2025-2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Groupe :</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Berhili Ouafae  &amp;  Bouzaher Amal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="22" customHeight="1">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Mission :</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>A.1 — Sprint Planning (3 points)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Période :</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Jour 3 après-midi → Jour 4 → Jour 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="1">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Méthodo :</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Scrum / Kanban — 3 Sprints</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="1">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Stack :</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Supabase · Retool · Metabase · GitHub · Trello</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="38" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Sprint 1 — Organisation &amp; Setup</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="6" customHeight="1"/>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>🎯  SPRINT GOAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="48" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Mettre en place l'environnement complet du projet (Supabase, Retool, Metabase, GitHub, Trello) et structurer l'organisation Agile (Sprint Planning, Kanban, rôles documentés) pour que l'équipe démarre le développement du prototype dès Sprint 2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="6" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>📋  USER STORIES SÉLECTIONNÉES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>User Story</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Rôle utilisateur</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>Priorité MoSCoW</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="38" customHeight="1">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>US-001</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>En tant qu'agent d'accueil, je veux créer et modifier une fiche client avec ses coordonnées</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>Agent d'accueil</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>3 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="38" customHeight="1">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>US-010</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>En tant que technicien, je veux créer une fiche réparation liée à un client et un appareil</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Technicien</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>5 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="38" customHeight="1">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>US-020</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>En tant que responsable, je veux accéder à un dashboard de suivi des réparations</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>8 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="38" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>US-030</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>En tant qu'admin, je veux une BDD structurée et peuplée avec des données de test</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="inlineStr">
+        <is>
+          <t>5 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="8" customHeight="1"/>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>⚙️  RÉPARTITION DES TÂCHES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>Tâche précise / Description</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>Responsable principal</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>Soutien</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>Durée estimée</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>Livrable produit</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="40" customHeight="1">
+      <c r="A15" s="16" t="inlineStr">
+        <is>
+          <t>Formation du binôme : attribution rôles (Ouafae = Supabase+Metabase / Amal = Retool App CRUD), validation stack</t>
+        </is>
+      </c>
+      <c r="B15" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae &amp; Amal</t>
+        </is>
+      </c>
+      <c r="C15" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D15" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>Stack validée + rôles documentés</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="40" customHeight="1">
+      <c r="A16" s="20" t="inlineStr">
+        <is>
+          <t>Rédaction Sprint Planning complet 3 sprints (Sprint Goal, US, tâches, livrables) → sprint_planning.xlsx</t>
+        </is>
+      </c>
+      <c r="B16" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C16" s="21" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D16" s="19" t="inlineStr">
+        <is>
+          <t>1h00</t>
+        </is>
+      </c>
+      <c r="E16" s="20" t="inlineStr">
+        <is>
+          <t>sprint_planning.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="40" customHeight="1">
+      <c r="A17" s="16" t="inlineStr">
+        <is>
+          <t>Mise en place Kanban Trello (4 colonnes + toutes les cartes) + capture début Sprint 1 (1/6)</t>
+        </is>
+      </c>
+      <c r="B17" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C17" s="18" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D17" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="inlineStr">
+        <is>
+          <t>Trello configuré + kanban_S1_debut.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="40" customHeight="1">
+      <c r="A18" s="20" t="inlineStr">
+        <is>
+          <t>Création projet Supabase : nouveau projet PostgreSQL, récupération URL + anon key + service_role key</t>
+        </is>
+      </c>
+      <c r="B18" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C18" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D18" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E18" s="20" t="inlineStr">
+        <is>
+          <t>Projet Supabase actif + credentials.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="40" customHeight="1">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>Import create_database.sql dans Supabase SQL Editor : 10 tables + toutes contraintes PK/FK/CHECK/DEFAULT</t>
+        </is>
+      </c>
+      <c r="B19" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C19" s="18" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D19" s="19" t="inlineStr">
+        <is>
+          <t>1h00</t>
+        </is>
+      </c>
+      <c r="E19" s="16" t="inlineStr">
+        <is>
+          <t>Schéma BDD opérationnel + schema.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="40" customHeight="1">
+      <c r="A20" s="20" t="inlineStr">
+        <is>
+          <t>Import insert_data.sql : 20 clients, 30 appareils, 5 boutiques, 10 employés, 40 réparations (tous statuts), paiements</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C20" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E20" s="20" t="inlineStr">
+        <is>
+          <t>BDD peuplée + insert_data.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="40" customHeight="1">
+      <c r="A21" s="16" t="inlineStr">
+        <is>
+          <t>Création dépôt GitHub 'quickrepair-cda' : git init, git config identité individuelle, README.md, .gitignore, push initial</t>
+        </is>
+      </c>
+      <c r="B21" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C21" s="18" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D21" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>Dépôt GitHub + README.md + .gitignore</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="40" customHeight="1">
+      <c r="A22" s="20" t="inlineStr">
+        <is>
+          <t>Rédaction journal_de_bord.xlsx (7 colonnes exactes) + répartition_taches.xlsx (Mission A.3)</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C22" s="21" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D22" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E22" s="20" t="inlineStr">
+        <is>
+          <t>journal_de_bord.xlsx + répartition_taches.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="8" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>📦  LIVRABLES ATTENDUS À LA FIN DU SPRINT</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="22" customHeight="1">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Livrable</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="D25" s="7" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
         <is>
           <t>Statut</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="130" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>SPRINT 1
-Jour 3 PM
-(après-midi)</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>Constituer l'équipe, valider la stack technique, configurer les 19 tables MySQL sur Supabase, mettre en place les outils de collaboration.</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>US-01 : En tant que groupe, nous voulons un environnement technique fonctionnel (Supabase, Retool, Metabase) avant de coder.
-US-02 : En tant que groupe, nous voulons un tableau Kanban opérationnel pour piloter nos tâches.
-US-03 : En tant que groupe, nous voulons les 19 tables importées, peuplées et accessibles.</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>- Création projet Supabase (MySQL → PostgreSQL adapté)
-- Exécution create_database.sql → 19 tables :
-  role, boutique, employe, client, appareil,
-  type_reparation, statut, piece, fournisseur,
-  fournisseur_piece, stock, commande_fournisseur,
-  commande_ligne, reparation, historique_statut,
-  devis, devis_ligne, reparation_piece, paiement
-- Exécution insert_data.sql (données de test)
-- Connexion Metabase ↔ Supabase
-- Rédaction Sprint Planning A.1</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>- Création dépôt GitHub + README + .gitignore
-- Mise en place Kanban Trello (4 colonnes)
-- Connexion Retool ↔ Supabase (ressource PostgreSQL)
-- Prise capture Kanban début Sprint 1
-- Invitation binôme sur Trello et GitHub
-- 1er commit GitHub</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>- Supabase : 19 tables créées + BDD peuplée
-- Dépôt GitHub initialisé
-- Trello opérationnel (capture S1-début)
-- Metabase connectée à Supabase
-- Retool connecté à Supabase
-- Sprint Planning A.1 validé
-- Capture Kanban fin Sprint 1</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>Jour 3 PM</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="inlineStr">
-        <is>
-          <t>✅ Terminé</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="175" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
-        <is>
-          <t>SPRINT 2
-Jour 4
-(journée complète)</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>Développer le prototype fonctionnel : application CRUD Retool (clients, appareils, réparations, devis, rôles) + dashboard Metabase 6 KPI connectés aux 19 tables.</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>US-04 : En tant que technicien, je veux voir et mettre à jour le statut d'une réparation depuis l'app.
-US-05 : En tant qu'agent d'accueil, je veux créer une fiche client, un appareil et une réparation.
-US-06 : En tant que responsable, je veux voir le CA mensuel par boutique sur un dashboard.
-US-07 : En tant que responsable, je veux voir les réparations en cours et les alertes stock.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>METABASE — 6 KPI :
-- KPI #1 : CA mensuel par boutique → table paiement + boutique
-- KPI #2 : Réparations en cours/boutique → table reparation + historique_statut
-- KPI #3 : Nb réparations par statut (camembert) → table statut
-- KPI #4 : Top 5 types de réparation → table type_reparation
-- KPI #5 : Délai moyen par boutique → dates depot/fin reparation
-- KPI #6 : Stock sous seuil d'alerte → table stock
-- Commits GitHub (min. 3 commits Ouafae)</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>RETOOL — Modules :
-- Clients : liste (recherche nom/tel/email) + CRUD + fiche détail
-- Appareils : liste par client + création (marque, modèle, catégorie, n° série)
-- Réparations : formulaire création (client→appareil→type→boutique→tech)
-- Réparations : liste + filtres (boutique, statut, technicien, date)
-- Réparation détail : changement statut + timeline historique_statut
-- Devis : création lignes (OPERATION/PIECE) + acceptation/refus
-- Rôles : Technicien (ses réparations) / Responsable (tout voir)
-- Commits GitHub (min. 3 commits Amal)</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
-        <is>
-          <t>- Dashboard Metabase (6 KPI + graphiques)
-- App Retool : modules Clients, Appareils,
-  Réparations, Devis, Rôles
-- Gestion rôles documentée (2 profils + captures)
-- Min. 3 filtres fonctionnels
-- Timeline historique_statut active
-- Capture Kanban début Sprint 2
-- Capture Kanban fin Sprint 2
-- Min. 5 commits GitHub cumulés/membre</t>
-        </is>
-      </c>
-      <c r="G6" s="12" t="inlineStr">
-        <is>
-          <t>Jour 4</t>
-        </is>
-      </c>
-      <c r="H6" s="12" t="inlineStr">
-        <is>
-          <t>🔄 En cours</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="150" customHeight="1">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>SPRINT 3
-Jour 5
-(journée complète)</t>
-        </is>
-      </c>
-      <c r="B7" s="14" t="inlineStr">
-        <is>
-          <t>Finaliser, tester (T01→T10), documenter le projet, produire la vidéo de démonstration et livrer le ZIP complet.</t>
-        </is>
-      </c>
-      <c r="C7" s="15" t="inlineStr">
-        <is>
-          <t>US-08 : En tant que groupe, nous voulons avoir passé tous les tests T01→T10 avec succès.
-US-09 : En tant que groupe, nous voulons une vidéo de démonstration de 8 à 12 minutes.
-US-10 : En tant que groupe, nous voulons un rapport technique complet et une rétrospective Agile.
-US-11 : En tant que groupe, nous voulons livrer le ZIP final sur Teams avant la deadline.</t>
-        </is>
-      </c>
-      <c r="D7" s="15" t="inlineStr">
-        <is>
-          <t>- Plan de tests T01→T10 (rédaction scénarios)
-- Documentation technique (19 tables, architecture, API)
-- Enregistrement vidéo — partie Ouafae (Supabase + Metabase)
-- Captures finales Metabase
-- Rétrospective Agile (PDF)
-- Capture Kanban fin Sprint 3</t>
-        </is>
-      </c>
-      <c r="E7" s="15" t="inlineStr">
-        <is>
-          <t>- Exécution tests T01→T10 + captures résultats
-- Guide installation PDF (prérequis, étapes, identifiants)
-- Slides présentation (15 slides)
-- Enregistrement vidéo — partie Amal (Retool app)
-- Déclaration intégrité
-- Assemblage ZIP final + dépôt Teams</t>
-        </is>
-      </c>
-      <c r="F7" s="15" t="inlineStr">
-        <is>
-          <t>- plan_tests.xlsx (T01→T10 OK)
-- documentation_technique.pdf
-- guide_installation.pdf
-- video_demo_finale.mp4 (8-12 min)
-- slides.pdf (15 slides)
-- retrospective.pdf
-- declaration_integrite.pdf
-- ZIP final déposé sur Teams</t>
-        </is>
-      </c>
-      <c r="G7" s="16" t="inlineStr">
-        <is>
-          <t>Jour 5</t>
-        </is>
-      </c>
-      <c r="H7" s="16" t="inlineStr">
-        <is>
-          <t>⏳ À venir</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14" customHeight="1">
-      <c r="A8" s="17" t="inlineStr">
-        <is>
-          <t>Auteur : Ouafae Berhili (BDD 19 tables + Metabase + coordination)  |  Amal Bouzaher (Retool + GitHub)  |  Document Sprint Planning — Mission A.1</t>
+    <row r="26" ht="28" customHeight="1">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>Sprint Planning documenté (3 sprints complets)</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>Excel .xlsx</t>
+        </is>
+      </c>
+      <c r="E26" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="28" customHeight="1">
+      <c r="A27" s="24" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+      <c r="B27" s="25" t="inlineStr">
+        <is>
+          <t>Kanban Trello opérationnel + capture début S1 (1/6)</t>
+        </is>
+      </c>
+      <c r="C27" s="26" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D27" s="26" t="inlineStr">
+        <is>
+          <t>Trello + PNG</t>
+        </is>
+      </c>
+      <c r="E27" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="28" customHeight="1">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>Projet Supabase avec schéma SQL importé (10 tables)</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>Supabase + .sql</t>
+        </is>
+      </c>
+      <c r="E28" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="28" customHeight="1">
+      <c r="A29" s="24" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+      <c r="B29" s="25" t="inlineStr">
+        <is>
+          <t>BDD peuplée (40 réparations, 20 clients, 30 appareils)</t>
+        </is>
+      </c>
+      <c r="C29" s="26" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D29" s="26" t="inlineStr">
+        <is>
+          <t>.sql</t>
+        </is>
+      </c>
+      <c r="E29" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="28" customHeight="1">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>Dépôt GitHub créé + README.md + .gitignore</t>
+        </is>
+      </c>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>GitHub</t>
+        </is>
+      </c>
+      <c r="E30" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="28" customHeight="1">
+      <c r="A31" s="24" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+      <c r="B31" s="25" t="inlineStr">
+        <is>
+          <t>journal_de_bord.xlsx + répartition_taches.xlsx</t>
+        </is>
+      </c>
+      <c r="C31" s="26" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D31" s="26" t="inlineStr">
+        <is>
+          <t>Excel .xlsx</t>
+        </is>
+      </c>
+      <c r="E31" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="38" customHeight="1">
+      <c r="A1" s="27" t="inlineStr">
+        <is>
+          <t>Sprint 2 — Développement Prototype</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="6" customHeight="1"/>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>🎯  SPRINT GOAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="48" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Développer le prototype fonctionnel complet : application de gestion CRUD (clients + réparations + cycle de vie du statut + contrôle d'accès par rôle) sur Retool, et dashboard de pilotage BI avec 5 KPI sur Metabase. Tous les outils connectés à Supabase PostgreSQL.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="6" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>📋  USER STORIES SÉLECTIONNÉES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>User Story</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Rôle utilisateur</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>Priorité MoSCoW</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="38" customHeight="1">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>US-001</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>En tant qu'agent, je veux créer / modifier / rechercher un client (nom, tel, email)</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>Agent d'accueil</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>3 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="38" customHeight="1">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>US-002</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>En tant qu'agent, je veux voir l'historique des réparations d'un client</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Agent d'accueil</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>2 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="38" customHeight="1">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>US-010</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>En tant que technicien, je veux créer une réparation (client, appareil, type, boutique, technicien)</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>Technicien</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>5 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="38" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>US-011</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>En tant que technicien, je veux changer le statut d'une réparation selon le cycle de vie</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>Technicien</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="inlineStr">
+        <is>
+          <t>3 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="38" customHeight="1">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>US-012</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>En tant que technicien, je veux voir uniquement MES réparations (contrôle d'accès)</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Technicien</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>3 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="38" customHeight="1">
+      <c r="A13" s="12" t="inlineStr">
+        <is>
+          <t>US-020</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>En tant que responsable, je veux filtrer les réparations par boutique / statut / technicien / date</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="D13" s="15" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E13" s="14" t="inlineStr">
+        <is>
+          <t>3 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="38" customHeight="1">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>US-021</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>En tant que responsable, je veux un dashboard avec KPI réparations (statuts, délais, top types)</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Responsable</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>8 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="8" customHeight="1"/>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>⚙️  RÉPARTITION DES TÂCHES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>Tâche précise / Description</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Responsable principal</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Soutien</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>Durée estimée</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>Livrable produit</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="40" customHeight="1">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>Configuration ressource PostgreSQL dans Retool : host pooler Supabase (port 6543), SSL, test connexion</t>
+        </is>
+      </c>
+      <c r="B18" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C18" s="18" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D18" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>Connexion Retool↔Supabase validée</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="40" customHeight="1">
+      <c r="A19" s="20" t="inlineStr">
+        <is>
+          <t>Module Clients Retool — liste avec recherche ILIKE+UNACCENT (nom/prénom/téléphone/email) + pagination</t>
+        </is>
+      </c>
+      <c r="B19" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D19" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>Interface clients — liste (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="40" customHeight="1">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>Module Clients Retool — formulaire création/modification avec validation champs NOT NULL</t>
+        </is>
+      </c>
+      <c r="B20" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C20" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>Interface clients — CRUD (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="40" customHeight="1">
+      <c r="A21" s="20" t="inlineStr">
+        <is>
+          <t>Module Clients Retool — page détail client + tableau historique réparations (jointure CLIENT↔REPARATION)</t>
+        </is>
+      </c>
+      <c r="B21" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D21" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E21" s="20" t="inlineStr">
+        <is>
+          <t>Interface clients — détail (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="40" customHeight="1">
+      <c r="A22" s="16" t="inlineStr">
+        <is>
+          <t>Module Réparations Retool — formulaire création : dropdowns enchaînés client→appareil→type→boutique→technicien</t>
+        </is>
+      </c>
+      <c r="B22" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C22" s="18" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D22" s="19" t="inlineStr">
+        <is>
+          <t>1h00</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>Interface réparations — formulaire (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="40" customHeight="1">
+      <c r="A23" s="20" t="inlineStr">
+        <is>
+          <t>Module Réparations Retool — liste avec filtres combinables (boutique/statut/technicien/dates) + reset</t>
+        </is>
+      </c>
+      <c r="B23" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C23" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="inlineStr">
+        <is>
+          <t>1h00</t>
+        </is>
+      </c>
+      <c r="E23" s="20" t="inlineStr">
+        <is>
+          <t>Interface réparations — filtres (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="40" customHeight="1">
+      <c r="A24" s="16" t="inlineStr">
+        <is>
+          <t>Module Réparations Retool — page détail + changement statut (cycle de vie) + INSERT STATUT_HISTORIQUE + timeline</t>
+        </is>
+      </c>
+      <c r="B24" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C24" s="18" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D24" s="19" t="inlineStr">
+        <is>
+          <t>1h30</t>
+        </is>
+      </c>
+      <c r="E24" s="16" t="inlineStr">
+        <is>
+          <t>Interface réparations — statut + timeline (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="40" customHeight="1">
+      <c r="A25" s="20" t="inlineStr">
+        <is>
+          <t>Gestion rôles Retool : groupe Technicien (filtre propres réparations) + groupe Responsable (accès total) + 2 comptes test</t>
+        </is>
+      </c>
+      <c r="B25" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D25" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E25" s="20" t="inlineStr">
+        <is>
+          <t>Rôles configurés + screenshots comparatif</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="40" customHeight="1">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Configuration Metabase Cloud : connexion Supabase PostgreSQL (pooler, SSL), sync schéma</t>
+        </is>
+      </c>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C26" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E26" s="16" t="inlineStr">
+        <is>
+          <t>Metabase connecté + schéma sync (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="40" customHeight="1">
+      <c r="A27" s="20" t="inlineStr">
+        <is>
+          <t>KPI Metabase #1 — Nb réparations en cours (metric card, WHERE statut='En cours')</t>
+        </is>
+      </c>
+      <c r="B27" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C27" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D27" s="19" t="inlineStr">
+        <is>
+          <t>0h20</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>Dashboard KPI #1 (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="40" customHeight="1">
+      <c r="A28" s="16" t="inlineStr">
+        <is>
+          <t>KPI Metabase #2 — Répartition par statut (GROUP BY statut, graphique camembert avec %)</t>
+        </is>
+      </c>
+      <c r="B28" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C28" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D28" s="19" t="inlineStr">
+        <is>
+          <t>0h20</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="inlineStr">
+        <is>
+          <t>Dashboard KPI #2 (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="40" customHeight="1">
+      <c r="A29" s="20" t="inlineStr">
+        <is>
+          <t>KPI Metabase #3 — Délai moyen par boutique (EXTRACT EPOCH/86400, COALESCE date_fin, graphique barres)</t>
+        </is>
+      </c>
+      <c r="B29" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C29" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D29" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>Dashboard KPI #3 (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="40" customHeight="1">
+      <c r="A30" s="16" t="inlineStr">
+        <is>
+          <t>KPI Metabase #4 — Top 5 types réparations (COUNT+GROUP BY+ORDER DESC+LIMIT 5, barres horizontales)</t>
+        </is>
+      </c>
+      <c r="B30" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C30" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D30" s="19" t="inlineStr">
+        <is>
+          <t>0h20</t>
+        </is>
+      </c>
+      <c r="E30" s="16" t="inlineStr">
+        <is>
+          <t>Dashboard KPI #4 (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="40" customHeight="1">
+      <c r="A31" s="20" t="inlineStr">
+        <is>
+          <t>KPI Metabase #5 — Réparations en cours par boutique + filtres globaux (période + boutique) sur tout le dashboard</t>
+        </is>
+      </c>
+      <c r="B31" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C31" s="21" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D31" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E31" s="20" t="inlineStr">
+        <is>
+          <t>Dashboard KPI #5 + filtres (screenshot)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="40" customHeight="1">
+      <c r="A32" s="16" t="inlineStr">
+        <is>
+          <t>Documentation connexion BDD : captures Supabase + Retool + Metabase + paramètres (host/port/SSL)</t>
+        </is>
+      </c>
+      <c r="B32" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C32" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D32" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E32" s="16" t="inlineStr">
+        <is>
+          <t>documentation_connexion.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="40" customHeight="1">
+      <c r="A33" s="20" t="inlineStr">
+        <is>
+          <t>Commits Git Sprint 2 : min 5 commits chacune avec messages explicites (feat/docs/fix)</t>
+        </is>
+      </c>
+      <c r="B33" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae &amp; Amal</t>
+        </is>
+      </c>
+      <c r="C33" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D33" s="19" t="inlineStr">
+        <is>
+          <t>0h15</t>
+        </is>
+      </c>
+      <c r="E33" s="20" t="inlineStr">
+        <is>
+          <t>Historique Git Sprint 2 (min 5 commits/membre)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="8" customHeight="1"/>
+    <row r="35" ht="18" customHeight="1">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>📦  LIVRABLES ATTENDUS À LA FIN DU SPRINT</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="22" customHeight="1">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>Livrable</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="28" customHeight="1">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>Interface Clients Retool (liste+recherche+CRUD+détail)</t>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>Retool screenshots</t>
+        </is>
+      </c>
+      <c r="E37" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="28" customHeight="1">
+      <c r="A38" s="24" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+      <c r="B38" s="25" t="inlineStr">
+        <is>
+          <t>Interface Réparations Retool (formulaire+filtres+détail+statut+timeline)</t>
+        </is>
+      </c>
+      <c r="C38" s="26" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D38" s="26" t="inlineStr">
+        <is>
+          <t>Retool screenshots</t>
+        </is>
+      </c>
+      <c r="E38" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="28" customHeight="1">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+      <c r="B39" s="9" t="inlineStr">
+        <is>
+          <t>Gestion des rôles (Technicien vs Responsable) + 2 comptes test</t>
+        </is>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D39" s="10" t="inlineStr">
+        <is>
+          <t>Retool screenshots</t>
+        </is>
+      </c>
+      <c r="E39" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="28" customHeight="1">
+      <c r="A40" s="24" t="inlineStr">
+        <is>
+          <t>L10</t>
+        </is>
+      </c>
+      <c r="B40" s="25" t="inlineStr">
+        <is>
+          <t>Dashboard Metabase (5 KPI + graphiques + filtres période/boutique)</t>
+        </is>
+      </c>
+      <c r="C40" s="26" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D40" s="26" t="inlineStr">
+        <is>
+          <t>Metabase screenshots</t>
+        </is>
+      </c>
+      <c r="E40" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="28" customHeight="1">
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="inlineStr">
+        <is>
+          <t>Documentation connexion BDD (Supabase↔Retool + Supabase↔Metabase)</t>
+        </is>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D41" s="10" t="inlineStr">
+        <is>
+          <t>PDF + captures</t>
+        </is>
+      </c>
+      <c r="E41" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="28" customHeight="1">
+      <c r="A42" s="24" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+      <c r="B42" s="25" t="inlineStr">
+        <is>
+          <t>Captures Kanban fin S1 + début S2 + fin S2 (captures 2, 3, 4 sur 6)</t>
+        </is>
+      </c>
+      <c r="C42" s="26" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D42" s="26" t="inlineStr">
+        <is>
+          <t>PNG</t>
+        </is>
+      </c>
+      <c r="E42" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="38" customHeight="1">
+      <c r="A1" s="28" t="inlineStr">
+        <is>
+          <t>Sprint 3 — Tests, Doc &amp; Vidéo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="6" customHeight="1"/>
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>🎯  SPRINT GOAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="48" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Finaliser le projet : tests fonctionnels documentés (10 scénarios T01→T10), documentation technique complète, guide d'installation, slides de présentation, vidéo de démonstration (8–12 min, les deux membres présentent leur contribution), rétrospective Agile, et dépôt du ZIP final sur Teams.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="6" customHeight="1"/>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>📋  USER STORIES SÉLECTIONNÉES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>User Story</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="inlineStr">
+        <is>
+          <t>Rôle utilisateur</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>Priorité MoSCoW</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="38" customHeight="1">
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>US-040</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>En tant que correcteur, je veux un plan de tests avec résultats et captures d'écran</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>Correcteur</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E8" s="10" t="inlineStr">
+        <is>
+          <t>3 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="38" customHeight="1">
+      <c r="A9" s="12" t="inlineStr">
+        <is>
+          <t>US-041</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>En tant que correcteur, je veux un guide d'installation reproductible étape par étape</t>
+        </is>
+      </c>
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>Correcteur</t>
+        </is>
+      </c>
+      <c r="D9" s="15" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E9" s="14" t="inlineStr">
+        <is>
+          <t>2 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="38" customHeight="1">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>US-042</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>En tant que correcteur, je veux une documentation technique justifiant les choix technologiques</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>Correcteur</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>4 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="38" customHeight="1">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>US-043</t>
+        </is>
+      </c>
+      <c r="B11" s="13" t="inlineStr">
+        <is>
+          <t>En tant que correcteur, je veux une vidéo 8–12 min où chaque membre présente sa contribution</t>
+        </is>
+      </c>
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>Correcteur</t>
+        </is>
+      </c>
+      <c r="D11" s="15" t="inlineStr">
+        <is>
+          <t>Must</t>
+        </is>
+      </c>
+      <c r="E11" s="14" t="inlineStr">
+        <is>
+          <t>6 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="38" customHeight="1">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>US-044</t>
+        </is>
+      </c>
+      <c r="B12" s="9" t="inlineStr">
+        <is>
+          <t>En tant que correcteur, je veux une rétrospective Agile honnête et constructive</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>Correcteur</t>
+        </is>
+      </c>
+      <c r="D12" s="29" t="inlineStr">
+        <is>
+          <t>Should</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>2 pts</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="8" customHeight="1"/>
+    <row r="14" ht="18" customHeight="1">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>⚙️  RÉPARTITION DES TÂCHES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>Tâche précise / Description</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>Responsable principal</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr">
+        <is>
+          <t>Soutien</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>Durée estimée</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
+        <is>
+          <t>Livrable produit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="40" customHeight="1">
+      <c r="A16" s="16" t="inlineStr">
+        <is>
+          <t>Rédaction plan de tests T01→T10 : préconditions + étapes + résultat attendu/obtenu + statut OK/KO</t>
+        </is>
+      </c>
+      <c r="B16" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C16" s="18" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D16" s="19" t="inlineStr">
+        <is>
+          <t>1h30</t>
+        </is>
+      </c>
+      <c r="E16" s="16" t="inlineStr">
+        <is>
+          <t>plan_tests.xlsx (10 scénarios)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="40" customHeight="1">
+      <c r="A17" s="20" t="inlineStr">
+        <is>
+          <t>Exécution tests T01→T10 dans l'app + captures résultats (test_T01.png … test_T10.png)</t>
+        </is>
+      </c>
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C17" s="21" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D17" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E17" s="20" t="inlineStr">
+        <is>
+          <t>screenshots_tests/ (10 captures)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="40" customHeight="1">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>Guide installation §1 Prérequis + §2 Config Supabase (étapes numérotées + captures import SQL)</t>
+        </is>
+      </c>
+      <c r="B18" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C18" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D18" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E18" s="16" t="inlineStr">
+        <is>
+          <t>guide_installation.pdf §1-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="40" customHeight="1">
+      <c r="A19" s="20" t="inlineStr">
+        <is>
+          <t>Guide installation §3 Config Retool (ressource PostgreSQL + rôles) + §4 Config Metabase + §5 Identifiants test</t>
+        </is>
+      </c>
+      <c r="B19" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C19" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D19" s="19" t="inlineStr">
+        <is>
+          <t>0h45</t>
+        </is>
+      </c>
+      <c r="E19" s="20" t="inlineStr">
+        <is>
+          <t>guide_installation.pdf §3-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="40" customHeight="1">
+      <c r="A20" s="16" t="inlineStr">
+        <is>
+          <t>Documentation technique §1 Architecture déployée (schéma Supabase↔Retool↔Metabase↔GitHub)</t>
+        </is>
+      </c>
+      <c r="B20" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C20" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E20" s="16" t="inlineStr">
+        <is>
+          <t>documentation_technique.pdf §1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="40" customHeight="1">
+      <c r="A21" s="20" t="inlineStr">
+        <is>
+          <t>Documentation technique §2 Choix technos justifiés (Supabase vs Airtable, Retool vs Bubble, Metabase vs Power BI)</t>
+        </is>
+      </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C21" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D21" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E21" s="20" t="inlineStr">
+        <is>
+          <t>documentation_technique.pdf §2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="40" customHeight="1">
+      <c r="A22" s="16" t="inlineStr">
+        <is>
+          <t>Documentation technique §3 Fonctionnalités + §4 Modèle données prototype + §5 Limites &amp; évolutions</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C22" s="18" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D22" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
+          <t>documentation_technique.pdf §3-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="40" customHeight="1">
+      <c r="A23" s="20" t="inlineStr">
+        <is>
+          <t>Slides présentation PPTX 15 slides (contexte/archi/démo captures/tests/rétrospective/évolutions)</t>
+        </is>
+      </c>
+      <c r="B23" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C23" s="21" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D23" s="19" t="inlineStr">
+        <is>
+          <t>1h00</t>
+        </is>
+      </c>
+      <c r="E23" s="20" t="inlineStr">
+        <is>
+          <t>slides_presentation.pptx</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="40" customHeight="1">
+      <c r="A24" s="16" t="inlineStr">
+        <is>
+          <t>Définition répartition prise de parole vidéo (Ouafae : BDD+dashboard+rôles / Amal : app+réparations+tests)</t>
+        </is>
+      </c>
+      <c r="B24" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae &amp; Amal</t>
+        </is>
+      </c>
+      <c r="C24" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D24" s="19" t="inlineStr">
+        <is>
+          <t>0h15</t>
+        </is>
+      </c>
+      <c r="E24" s="16" t="inlineStr">
+        <is>
+          <t>Script vidéo + plan de tournage</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="40" customHeight="1">
+      <c r="A25" s="20" t="inlineStr">
+        <is>
+          <t>Enregistrement vidéo Ouafae (OBS) : rôle + Supabase BDD + Metabase KPI + gestion rôles</t>
+        </is>
+      </c>
+      <c r="B25" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="C25" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D25" s="19" t="inlineStr">
+        <is>
+          <t>1h00</t>
+        </is>
+      </c>
+      <c r="E25" s="20" t="inlineStr">
+        <is>
+          <t>video_ouafae_raw.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="40" customHeight="1">
+      <c r="A26" s="16" t="inlineStr">
+        <is>
+          <t>Enregistrement vidéo Amal : rôle + interface clients + réparations + cycle de vie + tests T01-T10</t>
+        </is>
+      </c>
+      <c r="B26" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C26" s="18" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D26" s="19" t="inlineStr">
+        <is>
+          <t>1h00</t>
+        </is>
+      </c>
+      <c r="E26" s="16" t="inlineStr">
+        <is>
+          <t>video_amal_raw.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="40" customHeight="1">
+      <c r="A27" s="20" t="inlineStr">
+        <is>
+          <t>Montage + fusion vidéo (suppression temps morts, vérif durée 8–12 min, export MP4 720p)</t>
+        </is>
+      </c>
+      <c r="B27" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae &amp; Amal</t>
+        </is>
+      </c>
+      <c r="C27" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D27" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E27" s="20" t="inlineStr">
+        <is>
+          <t>video_presentation.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="40" customHeight="1">
+      <c r="A28" s="16" t="inlineStr">
+        <is>
+          <t>Rédaction rétrospective.pdf : ce qui a marché / améliorations / actions / auto-évaluation</t>
+        </is>
+      </c>
+      <c r="B28" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C28" s="18" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D28" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E28" s="16" t="inlineStr">
+        <is>
+          <t>retrospective.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="40" customHeight="1">
+      <c r="A29" s="20" t="inlineStr">
+        <is>
+          <t>Déclaration d'intégrité signée par les deux membres</t>
+        </is>
+      </c>
+      <c r="B29" s="17" t="inlineStr">
+        <is>
+          <t>Ouafae &amp; Amal</t>
+        </is>
+      </c>
+      <c r="C29" s="21" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D29" s="19" t="inlineStr">
+        <is>
+          <t>0h15</t>
+        </is>
+      </c>
+      <c r="E29" s="20" t="inlineStr">
+        <is>
+          <t>declaration_integrite.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="40" customHeight="1">
+      <c r="A30" s="16" t="inlineStr">
+        <is>
+          <t>Vérification structure ZIP, commits finaux (≥5/membre), dépôt Teams avant deadline Jour 5</t>
+        </is>
+      </c>
+      <c r="B30" s="22" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="C30" s="18" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D30" s="19" t="inlineStr">
+        <is>
+          <t>0h30</t>
+        </is>
+      </c>
+      <c r="E30" s="16" t="inlineStr">
+        <is>
+          <t>GROUPE_BerhiliOuafae_BouzaherAmal_Partie2.zip</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="8" customHeight="1"/>
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>📦  LIVRABLES ATTENDUS À LA FIN DU SPRINT</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="22" customHeight="1">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="inlineStr">
+        <is>
+          <t>Livrable</t>
+        </is>
+      </c>
+      <c r="C33" s="7" t="inlineStr">
+        <is>
+          <t>Auteur</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>Statut</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="28" customHeight="1">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>Plan de tests fonctionnels (10 scénarios) + captures résultats</t>
+        </is>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>Excel + PNG</t>
+        </is>
+      </c>
+      <c r="E34" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="28" customHeight="1">
+      <c r="A35" s="24" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+      <c r="B35" s="25" t="inlineStr">
+        <is>
+          <t>Guide d'installation PDF (5 pages + captures)</t>
+        </is>
+      </c>
+      <c r="C35" s="26" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D35" s="26" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+      <c r="E35" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="28" customHeight="1">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>Documentation technique PDF (6 pages)</t>
+        </is>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>Ouafae</t>
+        </is>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+      <c r="E36" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="28" customHeight="1">
+      <c r="A37" s="24" t="inlineStr">
+        <is>
+          <t>L16</t>
+        </is>
+      </c>
+      <c r="B37" s="25" t="inlineStr">
+        <is>
+          <t>Slides présentation (15 slides)</t>
+        </is>
+      </c>
+      <c r="C37" s="26" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D37" s="26" t="inlineStr">
+        <is>
+          <t>PPTX</t>
+        </is>
+      </c>
+      <c r="E37" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="28" customHeight="1">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>L17</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="inlineStr">
+        <is>
+          <t>Vidéo démonstration MP4 8–12 min (Ouafae + Amal visibles et présentent)</t>
+        </is>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Les deux</t>
+        </is>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
+        <is>
+          <t>MP4</t>
+        </is>
+      </c>
+      <c r="E38" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="28" customHeight="1">
+      <c r="A39" s="24" t="inlineStr">
+        <is>
+          <t>L18</t>
+        </is>
+      </c>
+      <c r="B39" s="25" t="inlineStr">
+        <is>
+          <t>Rétrospective Agile PDF</t>
+        </is>
+      </c>
+      <c r="C39" s="26" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D39" s="26" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+      <c r="E39" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="28" customHeight="1">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>L19</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>Déclaration d'intégrité signée</t>
+        </is>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Les deux</t>
+        </is>
+      </c>
+      <c r="D40" s="10" t="inlineStr">
+        <is>
+          <t>PDF</t>
+        </is>
+      </c>
+      <c r="E40" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="28" customHeight="1">
+      <c r="A41" s="24" t="inlineStr">
+        <is>
+          <t>L20</t>
+        </is>
+      </c>
+      <c r="B41" s="25" t="inlineStr">
+        <is>
+          <t>ZIP final déposé Teams + ≥5 commits Git par membre</t>
+        </is>
+      </c>
+      <c r="C41" s="26" t="inlineStr">
+        <is>
+          <t>Les deux</t>
+        </is>
+      </c>
+      <c r="D41" s="26" t="inlineStr">
+        <is>
+          <t>ZIP + GitHub</t>
+        </is>
+      </c>
+      <c r="E41" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="28" customHeight="1">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>L21</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>Captures Kanban début+fin S3 (captures 5 et 6 sur 6)</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Amal</t>
+        </is>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>PNG</t>
+        </is>
+      </c>
+      <c r="E42" s="23" t="inlineStr">
+        <is>
+          <t>✅ Prévu</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
